--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>804</v>
+        <v>810.6731951491925</v>
       </c>
       <c r="C2">
-        <v>516</v>
+        <v>519.5399500817239</v>
       </c>
       <c r="D2">
-        <v>381</v>
+        <v>377.5165848720561</v>
       </c>
       <c r="E2">
-        <v>884</v>
+        <v>891.2072356207559</v>
       </c>
       <c r="F2">
-        <v>811</v>
+        <v>816.2655584213176</v>
       </c>
       <c r="G2">
-        <v>704</v>
+        <v>705.698026459629</v>
       </c>
       <c r="H2">
-        <v>888</v>
+        <v>894.2834347060425</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>847</v>
+        <v>853.6162607233118</v>
       </c>
       <c r="C3">
-        <v>539</v>
+        <v>542.3516677527452</v>
       </c>
       <c r="D3">
-        <v>350</v>
+        <v>354.2488000318697</v>
       </c>
       <c r="E3">
-        <v>914</v>
+        <v>918.8464568727627</v>
       </c>
       <c r="F3">
-        <v>852</v>
+        <v>857.5566018388613</v>
       </c>
       <c r="G3">
-        <v>709</v>
+        <v>713.4871374663375</v>
       </c>
       <c r="H3">
-        <v>917</v>
+        <v>920.7716035501105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>727</v>
+        <v>734.5948601966046</v>
       </c>
       <c r="C4">
-        <v>563</v>
+        <v>563.8605507489592</v>
       </c>
       <c r="D4">
-        <v>204</v>
+        <v>200.3093732408394</v>
       </c>
       <c r="E4">
-        <v>844</v>
+        <v>848.1439060241668</v>
       </c>
       <c r="F4">
-        <v>734</v>
+        <v>741.6630058926968</v>
       </c>
       <c r="G4">
-        <v>637</v>
+        <v>636.8114506417281</v>
       </c>
       <c r="H4">
-        <v>847</v>
+        <v>851.6346524056777</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>909</v>
+        <v>915.9270000733128</v>
       </c>
       <c r="C5">
-        <v>661</v>
+        <v>662.9786698217429</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>130.3464593441165</v>
       </c>
       <c r="E5">
-        <v>959</v>
+        <v>965.1838895242677</v>
       </c>
       <c r="F5">
-        <v>911</v>
+        <v>917.083831534653</v>
       </c>
       <c r="G5">
-        <v>710</v>
+        <v>714.0936209589279</v>
       </c>
       <c r="H5">
-        <v>960</v>
+        <v>965.6008698726566</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>893</v>
+        <v>900.2329883775661</v>
       </c>
       <c r="C6">
-        <v>645</v>
+        <v>647.8814483192817</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>66.49382152439483</v>
       </c>
       <c r="E6">
-        <v>948</v>
+        <v>956.0626579123599</v>
       </c>
       <c r="F6">
-        <v>895</v>
+        <v>901.9208893662466</v>
       </c>
       <c r="G6">
-        <v>666</v>
+        <v>671.7520134723012</v>
       </c>
       <c r="H6">
-        <v>949</v>
+        <v>956.6387882867735</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>934</v>
+        <v>938.8517375560593</v>
       </c>
       <c r="C7">
-        <v>712</v>
+        <v>713.9659208237927</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>111.4180642391784</v>
       </c>
       <c r="E7">
-        <v>974</v>
+        <v>978.3911234606398</v>
       </c>
       <c r="F7">
-        <v>935</v>
+        <v>939.6353147012608</v>
       </c>
       <c r="G7">
-        <v>747</v>
+        <v>750.8099286789158</v>
       </c>
       <c r="H7">
-        <v>976</v>
+        <v>978.6812250594128</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>827</v>
+        <v>833.1799429183484</v>
       </c>
       <c r="C8">
-        <v>286</v>
+        <v>285.6775235257514</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>108.5610867388323</v>
       </c>
       <c r="E8">
-        <v>851</v>
+        <v>857.551967363283</v>
       </c>
       <c r="F8">
-        <v>827</v>
+        <v>833.2110855707815</v>
       </c>
       <c r="G8">
-        <v>354</v>
+        <v>356.6613353955055</v>
       </c>
       <c r="H8">
-        <v>851</v>
+        <v>857.5831100157161</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>940</v>
+        <v>945.7389134525196</v>
       </c>
       <c r="C9">
-        <v>605</v>
+        <v>606.6176074155284</v>
       </c>
       <c r="D9">
-        <v>176</v>
+        <v>175.6678320388319</v>
       </c>
       <c r="E9">
-        <v>963</v>
+        <v>968.2246803912416</v>
       </c>
       <c r="F9">
-        <v>941</v>
+        <v>946.7832509100929</v>
       </c>
       <c r="G9">
-        <v>665</v>
+        <v>665.5488374974055</v>
       </c>
       <c r="H9">
-        <v>963</v>
+        <v>968.8104278695378</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>957</v>
+        <v>961.3154436913049</v>
       </c>
       <c r="C10">
-        <v>681</v>
+        <v>683.4259752372587</v>
       </c>
       <c r="D10">
-        <v>267</v>
+        <v>266.0637605274405</v>
       </c>
       <c r="E10">
-        <v>980</v>
+        <v>984.3029141654705</v>
       </c>
       <c r="F10">
-        <v>957</v>
+        <v>962.4164304111293</v>
       </c>
       <c r="G10">
-        <v>794</v>
+        <v>796.7028593535204</v>
       </c>
       <c r="H10">
-        <v>980</v>
+        <v>985.2174112199041</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>947</v>
+        <v>952.5553249171585</v>
       </c>
       <c r="C11">
-        <v>683</v>
+        <v>686.6652809504774</v>
       </c>
       <c r="D11">
-        <v>228</v>
+        <v>232.4492655713701</v>
       </c>
       <c r="E11">
-        <v>979</v>
+        <v>983.7696678525957</v>
       </c>
       <c r="F11">
-        <v>949</v>
+        <v>953.6963681437817</v>
       </c>
       <c r="G11">
-        <v>783</v>
+        <v>788.236008520571</v>
       </c>
       <c r="H11">
-        <v>980</v>
+        <v>984.5733410625709</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>871</v>
+        <v>874.7493301769194</v>
       </c>
       <c r="C12">
-        <v>700</v>
+        <v>700.8260013260174</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>56.26714088105341</v>
       </c>
       <c r="E12">
-        <v>960</v>
+        <v>962.237953507247</v>
       </c>
       <c r="F12">
-        <v>873</v>
+        <v>877.6914250533716</v>
       </c>
       <c r="G12">
-        <v>719</v>
+        <v>720.6201348792119</v>
       </c>
       <c r="H12">
-        <v>960</v>
+        <v>963.1117077385796</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>951</v>
+        <v>956.7539180159872</v>
       </c>
       <c r="C13">
-        <v>680</v>
+        <v>681.6785216095993</v>
       </c>
       <c r="D13">
-        <v>206</v>
+        <v>203.0457098268768</v>
       </c>
       <c r="E13">
-        <v>978</v>
+        <v>982.220056285759</v>
       </c>
       <c r="F13">
-        <v>952</v>
+        <v>957.8519584561764</v>
       </c>
       <c r="G13">
-        <v>775</v>
+        <v>774.2730251325225</v>
       </c>
       <c r="H13">
-        <v>978</v>
+        <v>983.0675815936149</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
@@ -409,7 +409,7 @@
         <v>810.6731951491925</v>
       </c>
       <c r="C2">
-        <v>519.5399500817239</v>
+        <v>519.539950081724</v>
       </c>
       <c r="D2">
         <v>377.5165848720561</v>
@@ -418,10 +418,10 @@
         <v>891.2072356207559</v>
       </c>
       <c r="F2">
-        <v>816.2655584213176</v>
+        <v>816.2655584213173</v>
       </c>
       <c r="G2">
-        <v>705.698026459629</v>
+        <v>705.6980264596291</v>
       </c>
       <c r="H2">
         <v>894.2834347060425</v>
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>853.6162607233118</v>
+        <v>853.6162607233116</v>
       </c>
       <c r="C3">
-        <v>542.3516677527452</v>
+        <v>542.351667752745</v>
       </c>
       <c r="D3">
-        <v>354.2488000318697</v>
+        <v>354.2488000318698</v>
       </c>
       <c r="E3">
-        <v>918.8464568727627</v>
+        <v>918.8464568727625</v>
       </c>
       <c r="F3">
-        <v>857.5566018388613</v>
+        <v>857.5566018388612</v>
       </c>
       <c r="G3">
-        <v>713.4871374663375</v>
+        <v>713.4871374663371</v>
       </c>
       <c r="H3">
-        <v>920.7716035501105</v>
+        <v>920.7716035501104</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>734.5948601966046</v>
+        <v>734.5948601966044</v>
       </c>
       <c r="C4">
-        <v>563.8605507489592</v>
+        <v>563.8605507489586</v>
       </c>
       <c r="D4">
-        <v>200.3093732408394</v>
+        <v>200.3093732408392</v>
       </c>
       <c r="E4">
-        <v>848.1439060241668</v>
+        <v>848.1439060241665</v>
       </c>
       <c r="F4">
-        <v>741.6630058926968</v>
+        <v>741.6630058926967</v>
       </c>
       <c r="G4">
-        <v>636.8114506417281</v>
+        <v>636.8114506417274</v>
       </c>
       <c r="H4">
-        <v>851.6346524056777</v>
+        <v>851.6346524056775</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>915.9270000733128</v>
+        <v>915.927000073313</v>
       </c>
       <c r="C5">
-        <v>662.9786698217429</v>
+        <v>662.9786698217432</v>
       </c>
       <c r="D5">
         <v>130.3464593441165</v>
       </c>
       <c r="E5">
-        <v>965.1838895242677</v>
+        <v>965.183889524268</v>
       </c>
       <c r="F5">
-        <v>917.083831534653</v>
+        <v>917.0838315346533</v>
       </c>
       <c r="G5">
-        <v>714.0936209589279</v>
+        <v>714.0936209589281</v>
       </c>
       <c r="H5">
-        <v>965.6008698726566</v>
+        <v>965.6008698726572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>900.2329883775661</v>
+        <v>900.2329883775667</v>
       </c>
       <c r="C6">
-        <v>647.8814483192817</v>
+        <v>647.8814483192821</v>
       </c>
       <c r="D6">
-        <v>66.49382152439483</v>
+        <v>66.49382152439496</v>
       </c>
       <c r="E6">
-        <v>956.0626579123599</v>
+        <v>956.0626579123605</v>
       </c>
       <c r="F6">
-        <v>901.9208893662466</v>
+        <v>901.920889366247</v>
       </c>
       <c r="G6">
-        <v>671.7520134723012</v>
+        <v>671.7520134723017</v>
       </c>
       <c r="H6">
-        <v>956.6387882867735</v>
+        <v>956.6387882867741</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>938.8517375560593</v>
+        <v>938.8517375560591</v>
       </c>
       <c r="C7">
-        <v>713.9659208237927</v>
+        <v>713.9659208237925</v>
       </c>
       <c r="D7">
         <v>111.4180642391784</v>
       </c>
       <c r="E7">
-        <v>978.3911234606398</v>
+        <v>978.3911234606396</v>
       </c>
       <c r="F7">
-        <v>939.6353147012608</v>
+        <v>939.6353147012605</v>
       </c>
       <c r="G7">
-        <v>750.8099286789158</v>
+        <v>750.8099286789156</v>
       </c>
       <c r="H7">
-        <v>978.6812250594128</v>
+        <v>978.6812250594126</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>833.1799429183484</v>
+        <v>833.1799429183477</v>
       </c>
       <c r="C8">
-        <v>285.6775235257514</v>
+        <v>285.6775235257509</v>
       </c>
       <c r="D8">
-        <v>108.5610867388323</v>
+        <v>108.5610867388321</v>
       </c>
       <c r="E8">
-        <v>857.551967363283</v>
+        <v>857.5519673632822</v>
       </c>
       <c r="F8">
-        <v>833.2110855707815</v>
+        <v>833.2110855707808</v>
       </c>
       <c r="G8">
-        <v>356.6613353955055</v>
+        <v>356.6613353955049</v>
       </c>
       <c r="H8">
-        <v>857.5831100157161</v>
+        <v>857.5831100157154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>945.7389134525196</v>
+        <v>945.7389134525188</v>
       </c>
       <c r="C9">
-        <v>606.6176074155284</v>
+        <v>606.6176074155286</v>
       </c>
       <c r="D9">
-        <v>175.6678320388319</v>
+        <v>175.6678320388316</v>
       </c>
       <c r="E9">
-        <v>968.2246803912416</v>
+        <v>968.2246803912408</v>
       </c>
       <c r="F9">
-        <v>946.7832509100929</v>
+        <v>946.7832509100923</v>
       </c>
       <c r="G9">
         <v>665.5488374974055</v>
       </c>
       <c r="H9">
-        <v>968.8104278695378</v>
+        <v>968.8104278695372</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>961.3154436913049</v>
+        <v>961.3154436913053</v>
       </c>
       <c r="C10">
-        <v>683.4259752372587</v>
+        <v>683.4259752372591</v>
       </c>
       <c r="D10">
-        <v>266.0637605274405</v>
+        <v>266.0637605274407</v>
       </c>
       <c r="E10">
-        <v>984.3029141654705</v>
+        <v>984.302914165471</v>
       </c>
       <c r="F10">
-        <v>962.4164304111293</v>
+        <v>962.4164304111298</v>
       </c>
       <c r="G10">
-        <v>796.7028593535204</v>
+        <v>796.7028593535209</v>
       </c>
       <c r="H10">
-        <v>985.2174112199041</v>
+        <v>985.2174112199045</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>952.5553249171585</v>
+        <v>952.5553249171589</v>
       </c>
       <c r="C11">
-        <v>686.6652809504774</v>
+        <v>686.6652809504775</v>
       </c>
       <c r="D11">
-        <v>232.4492655713701</v>
+        <v>232.4492655713702</v>
       </c>
       <c r="E11">
         <v>983.7696678525957</v>
       </c>
       <c r="F11">
-        <v>953.6963681437817</v>
+        <v>953.696368143782</v>
       </c>
       <c r="G11">
-        <v>788.236008520571</v>
+        <v>788.2360085205712</v>
       </c>
       <c r="H11">
-        <v>984.5733410625709</v>
+        <v>984.5733410625711</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>874.7493301769194</v>
+        <v>874.7493301769192</v>
       </c>
       <c r="C12">
-        <v>700.8260013260174</v>
+        <v>700.826001326017</v>
       </c>
       <c r="D12">
-        <v>56.26714088105341</v>
+        <v>56.26714088105346</v>
       </c>
       <c r="E12">
-        <v>962.237953507247</v>
+        <v>962.2379535072466</v>
       </c>
       <c r="F12">
-        <v>877.6914250533716</v>
+        <v>877.6914250533717</v>
       </c>
       <c r="G12">
-        <v>720.6201348792119</v>
+        <v>720.6201348792118</v>
       </c>
       <c r="H12">
-        <v>963.1117077385796</v>
+        <v>963.1117077385793</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>956.7539180159872</v>
+        <v>956.7539180159869</v>
       </c>
       <c r="C13">
-        <v>681.6785216095993</v>
+        <v>681.6785216095994</v>
       </c>
       <c r="D13">
         <v>203.0457098268768</v>
       </c>
       <c r="E13">
-        <v>982.220056285759</v>
+        <v>982.2200562857588</v>
       </c>
       <c r="F13">
-        <v>957.8519584561764</v>
+        <v>957.8519584561759</v>
       </c>
       <c r="G13">
         <v>774.2730251325225</v>
       </c>
       <c r="H13">
-        <v>983.0675815936149</v>
+        <v>983.0675815936146</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>810.6731951491925</v>
+        <v>811</v>
       </c>
       <c r="C2">
-        <v>519.539950081724</v>
+        <v>520</v>
       </c>
       <c r="D2">
-        <v>377.5165848720561</v>
+        <v>378</v>
       </c>
       <c r="E2">
-        <v>891.2072356207559</v>
+        <v>891</v>
       </c>
       <c r="F2">
-        <v>816.2655584213173</v>
+        <v>816</v>
       </c>
       <c r="G2">
-        <v>705.6980264596291</v>
+        <v>706</v>
       </c>
       <c r="H2">
-        <v>894.2834347060425</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>853.6162607233116</v>
+        <v>854</v>
       </c>
       <c r="C3">
-        <v>542.351667752745</v>
+        <v>542</v>
       </c>
       <c r="D3">
-        <v>354.2488000318698</v>
+        <v>354</v>
       </c>
       <c r="E3">
-        <v>918.8464568727625</v>
+        <v>919</v>
       </c>
       <c r="F3">
-        <v>857.5566018388612</v>
+        <v>858</v>
       </c>
       <c r="G3">
-        <v>713.4871374663371</v>
+        <v>713</v>
       </c>
       <c r="H3">
-        <v>920.7716035501104</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>734.5948601966044</v>
+        <v>735</v>
       </c>
       <c r="C4">
-        <v>563.8605507489586</v>
+        <v>564</v>
       </c>
       <c r="D4">
-        <v>200.3093732408392</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>848.1439060241665</v>
+        <v>848</v>
       </c>
       <c r="F4">
-        <v>741.6630058926967</v>
+        <v>742</v>
       </c>
       <c r="G4">
-        <v>636.8114506417274</v>
+        <v>637</v>
       </c>
       <c r="H4">
-        <v>851.6346524056775</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>915.927000073313</v>
+        <v>916</v>
       </c>
       <c r="C5">
-        <v>662.9786698217432</v>
+        <v>663</v>
       </c>
       <c r="D5">
-        <v>130.3464593441165</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>965.183889524268</v>
+        <v>965</v>
       </c>
       <c r="F5">
-        <v>917.0838315346533</v>
+        <v>917</v>
       </c>
       <c r="G5">
-        <v>714.0936209589281</v>
+        <v>714</v>
       </c>
       <c r="H5">
-        <v>965.6008698726572</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>900.2329883775667</v>
+        <v>900</v>
       </c>
       <c r="C6">
-        <v>647.8814483192821</v>
+        <v>648</v>
       </c>
       <c r="D6">
-        <v>66.49382152439496</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>956.0626579123605</v>
+        <v>956</v>
       </c>
       <c r="F6">
-        <v>901.920889366247</v>
+        <v>902</v>
       </c>
       <c r="G6">
-        <v>671.7520134723017</v>
+        <v>672</v>
       </c>
       <c r="H6">
-        <v>956.6387882867741</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>938.8517375560591</v>
+        <v>939</v>
       </c>
       <c r="C7">
-        <v>713.9659208237925</v>
+        <v>714</v>
       </c>
       <c r="D7">
-        <v>111.4180642391784</v>
+        <v>111</v>
       </c>
       <c r="E7">
-        <v>978.3911234606396</v>
+        <v>978</v>
       </c>
       <c r="F7">
-        <v>939.6353147012605</v>
+        <v>940</v>
       </c>
       <c r="G7">
-        <v>750.8099286789156</v>
+        <v>751</v>
       </c>
       <c r="H7">
-        <v>978.6812250594126</v>
+        <v>979</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>833.1799429183477</v>
+        <v>833</v>
       </c>
       <c r="C8">
-        <v>285.6775235257509</v>
+        <v>286</v>
       </c>
       <c r="D8">
-        <v>108.5610867388321</v>
+        <v>109</v>
       </c>
       <c r="E8">
-        <v>857.5519673632822</v>
+        <v>858</v>
       </c>
       <c r="F8">
-        <v>833.2110855707808</v>
+        <v>833</v>
       </c>
       <c r="G8">
-        <v>356.6613353955049</v>
+        <v>357</v>
       </c>
       <c r="H8">
-        <v>857.5831100157154</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>945.7389134525188</v>
+        <v>946</v>
       </c>
       <c r="C9">
-        <v>606.6176074155286</v>
+        <v>607</v>
       </c>
       <c r="D9">
-        <v>175.6678320388316</v>
+        <v>176</v>
       </c>
       <c r="E9">
-        <v>968.2246803912408</v>
+        <v>968</v>
       </c>
       <c r="F9">
-        <v>946.7832509100923</v>
+        <v>947</v>
       </c>
       <c r="G9">
-        <v>665.5488374974055</v>
+        <v>666</v>
       </c>
       <c r="H9">
-        <v>968.8104278695372</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>961.3154436913053</v>
+        <v>961</v>
       </c>
       <c r="C10">
-        <v>683.4259752372591</v>
+        <v>683</v>
       </c>
       <c r="D10">
-        <v>266.0637605274407</v>
+        <v>266</v>
       </c>
       <c r="E10">
-        <v>984.302914165471</v>
+        <v>984</v>
       </c>
       <c r="F10">
-        <v>962.4164304111298</v>
+        <v>962</v>
       </c>
       <c r="G10">
-        <v>796.7028593535209</v>
+        <v>797</v>
       </c>
       <c r="H10">
-        <v>985.2174112199045</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>952.5553249171589</v>
+        <v>953</v>
       </c>
       <c r="C11">
-        <v>686.6652809504775</v>
+        <v>687</v>
       </c>
       <c r="D11">
-        <v>232.4492655713702</v>
+        <v>232</v>
       </c>
       <c r="E11">
-        <v>983.7696678525957</v>
+        <v>984</v>
       </c>
       <c r="F11">
-        <v>953.696368143782</v>
+        <v>954</v>
       </c>
       <c r="G11">
-        <v>788.2360085205712</v>
+        <v>788</v>
       </c>
       <c r="H11">
-        <v>984.5733410625711</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>874.7493301769192</v>
+        <v>875</v>
       </c>
       <c r="C12">
-        <v>700.826001326017</v>
+        <v>701</v>
       </c>
       <c r="D12">
-        <v>56.26714088105346</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>962.2379535072466</v>
+        <v>962</v>
       </c>
       <c r="F12">
-        <v>877.6914250533717</v>
+        <v>878</v>
       </c>
       <c r="G12">
-        <v>720.6201348792118</v>
+        <v>721</v>
       </c>
       <c r="H12">
-        <v>963.1117077385793</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>956.7539180159869</v>
+        <v>957</v>
       </c>
       <c r="C13">
-        <v>681.6785216095994</v>
+        <v>682</v>
       </c>
       <c r="D13">
-        <v>203.0457098268768</v>
+        <v>203</v>
       </c>
       <c r="E13">
-        <v>982.2200562857588</v>
+        <v>982</v>
       </c>
       <c r="F13">
-        <v>957.8519584561759</v>
+        <v>958</v>
       </c>
       <c r="G13">
-        <v>774.2730251325225</v>
+        <v>774</v>
       </c>
       <c r="H13">
-        <v>983.0675815936146</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
